--- a/Pitching Data.xlsx
+++ b/Pitching Data.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radcl\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49397F8A-198C-457C-9604-A9A066552DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BBC7C5-B4D5-4C39-B150-A8ED10226309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D78C2D02-A9D9-4CE4-8E24-9AB6CA1378F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D78C2D02-A9D9-4CE4-8E24-9AB6CA1378F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Owen-Radcliffe" sheetId="1" r:id="rId1"/>
+    <sheet name="Andrew-Gray" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Owen-Radcliffe'!$G$1:$G$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="26">
   <si>
     <t>Type</t>
   </si>
@@ -113,6 +115,9 @@
   </si>
   <si>
     <t>LD</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
@@ -465,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD7A098-F7EB-4E04-AA50-09143DB71FF4}">
-  <dimension ref="A1:W139"/>
+  <dimension ref="A1:X139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S142" sqref="S142"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -534,7 +539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -560,7 +565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -589,7 +594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -624,7 +629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -650,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -688,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -731,8 +736,11 @@
       <c r="W8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -758,7 +766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -787,7 +795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -822,7 +830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -848,7 +856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -874,7 +882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -900,7 +908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -929,7 +937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4395,8 +4403,2578 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C139" xr:uid="{CAD7A098-F7EB-4E04-AA50-09143DB71FF4}"/>
+  <autoFilter ref="G1:G139" xr:uid="{CAD7A098-F7EB-4E04-AA50-09143DB71FF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C904D1-FDC6-46B4-9C7D-8972FE4A4B15}">
+  <dimension ref="A1:Z97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>-15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>-10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-8.5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>-10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>-15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>-6</v>
+      </c>
+      <c r="C14">
+        <v>-5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>-5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>-2</v>
+      </c>
+      <c r="C18">
+        <v>-15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>-5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <v>-20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>-8</v>
+      </c>
+      <c r="C20">
+        <v>-10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>-4</v>
+      </c>
+      <c r="C21">
+        <v>-10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>-15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>-30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <v>-15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>-15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>-2</v>
+      </c>
+      <c r="C27">
+        <v>-5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>-9</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>-12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>-10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>70</v>
+      </c>
+      <c r="G31">
+        <v>-30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>-8</v>
+      </c>
+      <c r="C33">
+        <v>-20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>-5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>-18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>-18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>-12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>-10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>85</v>
+      </c>
+      <c r="G38">
+        <v>-15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>-25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>-5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>85</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>90</v>
+      </c>
+      <c r="G41">
+        <v>-10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>-25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>-4</v>
+      </c>
+      <c r="C43">
+        <v>-18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>-4</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>-10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>-10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>95</v>
+      </c>
+      <c r="G47">
+        <v>-5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>-4</v>
+      </c>
+      <c r="C48">
+        <v>-20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>-20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>-20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>-25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>-15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>-4</v>
+      </c>
+      <c r="C53">
+        <v>-10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>-20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>-18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>-20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>-12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>-15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>-5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>-20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61">
+        <v>-3</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>-4</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>-12</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>-20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>-5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>75</v>
+      </c>
+      <c r="G67">
+        <v>-15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>-10</v>
+      </c>
+      <c r="C68">
+        <v>-5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>-5</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>-2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>85</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>-10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>-12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>-18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>-10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>-5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>-4</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>-5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>-5</v>
+      </c>
+      <c r="C79">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>-18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>95</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>-5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>-20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>-4</v>
+      </c>
+      <c r="C87">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>-4</v>
+      </c>
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>-10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>-25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>-25</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>-25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>-25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>